--- a/pred_ohlcv/54_21/2020-01-19 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FNB ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-16706307.93993636</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-16845305.50493636</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-16970481.28173636</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-19357250.83423636</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-18305440.49393636</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-16406147.92124228</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-16781970.34284228</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-17418695.12624228</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-20797685.02326272</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7058530.456931266</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7219753.765431266</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-7428908.560431266</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 FNB ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-16706307.93993636</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16705819.72813636</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-16834397.50493636</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-16970481.28173636</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-16968413.28173636</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-19357250.83423636</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-18433935.04733636</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-18438892.23873636</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-18305440.49393636</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-16406147.92124228</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-16781970.34284228</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-21313481.93884227</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-20797685.02326272</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7431627.867731266</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7595260.728531266</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7058530.456931266</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7219753.765431266</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-7396167.485431266</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-7428908.560431266</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
